--- a/biology/Zoologie/Icriodus/Icriodus.xlsx
+++ b/biology/Zoologie/Icriodus/Icriodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Icriodus est un genre de conodontes de la famille des Gnathodontidae.
 Les espèces sont trouvées dans des terrains datant du Silurien au Dévonien.
@@ -512,20 +524,22 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>†Icriodus amabilis Bultynck &amp; Hollard, 1980
 †Icriodus ballbergensis Lüddecke, Hartenfels &amp; Becker, 2017
 †Icriodus fusiformis
 †Icriodus latericrescens Branson &amp; Mehl, 1938
-†Icriodus marieae Suttner, Kido &amp; Suttner, 2017[1]
-†Icriodus ovalis Bultynck in Aboussalam, Becker &amp; Bultynck, 2015[2]
-†Icriodus praerectirostratus Bultynck in Aboussalam, Becker &amp; Bultynck, 2015[2]
-Icriodus praealternatus ferus Wang et al, 2016[3]
-†Icriodus plurinodosus Wang et al, 2016[3]
+†Icriodus marieae Suttner, Kido &amp; Suttner, 2017
+†Icriodus ovalis Bultynck in Aboussalam, Becker &amp; Bultynck, 2015
+†Icriodus praerectirostratus Bultynck in Aboussalam, Becker &amp; Bultynck, 2015
+Icriodus praealternatus ferus Wang et al, 2016
+†Icriodus plurinodosus Wang et al, 2016
 †Icriodus stenoancylus
-†Icriodus stenoancylus junggarensis Wang et al, 2016[3]
-†Icriodus woschmidti[4]</t>
+†Icriodus stenoancylus junggarensis Wang et al, 2016
+†Icriodus woschmidti</t>
         </is>
       </c>
     </row>
